--- a/output/file.xlsx
+++ b/output/file.xlsx
@@ -3,9 +3,6 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
-  </bookViews>
   <sheets>
     <sheet name="Specification Table" sheetId="1" r:id="rId4"/>
   </sheets>
@@ -15,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Specification Table</t>
   </si>
@@ -80,6 +77,330 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Supply Cost per m²</t>
+  </si>
+  <si>
+    <t>Acoustic Rating*</t>
+  </si>
+  <si>
+    <t>Total Weight</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"/>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="696969"/>
+        <sz val="20"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">$408.08 AUD</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="696969"/>
+        <sz val="9"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">
+ based on [300+ sqm]</t>
+    </r>
+  </si>
+  <si>
+    <t>15.9kg</t>
+  </si>
+  <si>
+    <t>IMPORTANT PRICING NOTE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"/>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="696969"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Price includes: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="696969"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">freight to site within Australia, contact Sculptform direct for advice on shipping outside of Australia. Corner trims, Endcaps, L profiles and all other standard componentry see our website for more information.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"/>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="696969"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Price does not include: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="696969"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">any custom corner/edging treatment, flashing, installation, substrates, hangers and TCR for suspended ceilings, fixings for substrate or insulation batts. Pricing is based on the amount of product required (M2) as specified on the pricing panel.</t>
+    </r>
+  </si>
+  <si>
+    <t>Please note: We have a minimum order of $15k due to manufacturing costs. The information provided in the Price &amp; Spec Tool is a guideline for your convenience. Every care has been taken to ensure reasonable accuracy however variations may occur. See our Terms of Use for more details.</t>
+  </si>
+  <si>
+    <t>*Based on professional opinion only. See disclaimer in Price &amp; Spec for full details.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"/>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="8b0000"/>
+        <sz val="25"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Happy with your specification? </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="696969"/>
+        <sz val="25"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Follow these 3 simple steps below to order.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="8b0000"/>
+        <sz val="20"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Step 1 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="696969"/>
+        <sz val="15"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Calculate your cost. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="696969"/>
+        <sz val="14"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">If the product specification and pricing is satisfactory, simply multiply this m 2 price by the m 2 of material required for your project.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="8b0000"/>
+        <sz val="20"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Step 2 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="696969"/>
+        <sz val="14"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Once the tender has been approved, email us the final construction drawings to receive a formal</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="696969"/>
+        <sz val="15"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> BOQ estimation </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="696969"/>
+        <sz val="14"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">which includes all standard trims and componentry.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="8b0000"/>
+        <sz val="20"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Step 3 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="696969"/>
+        <sz val="14"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Review itemised quote and follow the prompts to </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="696969"/>
+        <sz val="15"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">place your order. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFFFF"/>
+        <sz val="18"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Contact us on </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFFFF"/>
+        <sz val="18"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">1800 008 828</t>
+    </r>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFFFF"/>
+        <sz val="18"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">support@sculptform.com.au</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFFFF"/>
+        <sz val="18"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">sculptform.com.au</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -87,7 +408,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -104,7 +425,7 @@
       <u val="none"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
+      <name val="Lucida Sans"/>
     </font>
     <font>
       <b val="0"/>
@@ -112,6 +433,33 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
+      <color rgb="696969"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="20"/>
+      <color rgb="696969"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="696969"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="18"/>
       <color rgb="696969"/>
       <name val="Calibri"/>
     </font>
@@ -139,32 +487,59 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border/>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color rgb="757575"/>
       </left>
-      <right style="thick">
-        <color rgb="757575"/>
-      </right>
-      <top style="thick">
+      <top style="thin">
         <color rgb="757575"/>
       </top>
-      <bottom style="thick">
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="757575"/>
+      </left>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="757575"/>
+      </left>
+      <bottom style="thin">
         <color rgb="757575"/>
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="d4d4d4"/>
-      </left>
+      <top style="thin">
+        <color rgb="757575"/>
+      </top>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="757575"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
-        <color rgb="d4d4d4"/>
+        <color rgb="757575"/>
       </right>
       <top style="thin">
-        <color rgb="d4d4d4"/>
+        <color rgb="757575"/>
       </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="757575"/>
+      </right>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="757575"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="757575"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -195,27 +570,90 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="28">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -235,7 +673,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="12182475" cy="1809750"/>
+    <xdr:ext cx="12192000" cy="1905000"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Logo" descr="Logo">
@@ -264,10 +702,10 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5324475" cy="2552700"/>
+    <xdr:ext cx="5486400" cy="2457450"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="" descr=""/>
@@ -583,290 +1021,919 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="A58" sqref="A58:T59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:20">
       <c r="A1"/>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="I12" s="2" t="s">
+    <row r="13" spans="1:20">
+      <c r="A13" s="1"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="6"/>
+      <c r="K13" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="I13" s="5" t="s">
+    <row r="14" spans="1:20">
+      <c r="A14" s="2"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14" s="7"/>
+      <c r="K14" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="6" t="s">
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="I14" s="4" t="s">
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="2"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15" s="7"/>
+      <c r="K15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3" t="s">
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="I15" s="4" t="s">
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="2"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16" s="7"/>
+      <c r="K16" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3" t="s">
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="I16" s="4" t="s">
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="2"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17" s="7"/>
+      <c r="K17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3" t="s">
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="I17" s="4" t="s">
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="2"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18" s="7"/>
+      <c r="K18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3" t="s">
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="I18" s="4" t="s">
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="2"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19" s="7"/>
+      <c r="K19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3" t="s">
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="I19" s="4" t="s">
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="2"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20" s="7"/>
+      <c r="K20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3" t="s">
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="I20" s="4" t="s">
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="2"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21" s="7"/>
+      <c r="K21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3" t="s">
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="I21" s="4" t="s">
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="2"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22" s="7"/>
+      <c r="K22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3" t="s">
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="I22" s="4" t="s">
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="2"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23" s="7"/>
+      <c r="K23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3" t="s">
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="2"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="3"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="8"/>
+      <c r="K25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="K26" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve"/>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="696969"/>
+              <sz val="20"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">$408.08 AUD</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="false"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="696969"/>
+              <sz val="9"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">
+ based on [300+ sqm]</t>
+          </r>
+        </is>
+      </c>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13">
+        <v>0.961</v>
+      </c>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="K31" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="K33" s="15" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve"/>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="696969"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Price includes: </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="false"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="696969"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">freight to site within Australia, contact Sculptform direct for advice on shipping outside of Australia. Corner trims, Endcaps, L profiles and all other standard componentry see our website for more information.</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="K36" s="15" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve"/>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="696969"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Price does not include: </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="false"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="696969"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">any custom corner/edging treatment, flashing, installation, substrates, hangers and TCR for suspended ceilings, fixings for substrate or insulation batts. Pricing is based on the amount of product required (M2) as specified on the pricing panel.</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="K39" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="K42" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve"/>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="8b0000"/>
+              <sz val="25"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Happy with your specification? </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="false"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="696969"/>
+              <sz val="25"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Follow these 3 simple steps below to order.</t>
+          </r>
+        </is>
+      </c>
+      <c r="K46" s="17"/>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" s="18" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="8b0000"/>
+              <sz val="20"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Step 1 
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="696969"/>
+              <sz val="15"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Calculate your cost. </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="false"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="696969"/>
+              <sz val="14"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">If the product specification and pricing is satisfactory, simply multiply this m 2 price by the m 2 of material required for your project.</t>
+          </r>
+        </is>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="24"/>
+      <c r="H49" s="18" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="8b0000"/>
+              <sz val="20"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Step 2 
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="false"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="696969"/>
+              <sz val="14"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Once the tender has been approved, email us the final construction drawings to receive a formal</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="696969"/>
+              <sz val="15"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve"> BOQ estimation </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="false"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="696969"/>
+              <sz val="14"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">which includes all standard trims and componentry.</t>
+          </r>
+        </is>
+      </c>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="24"/>
+      <c r="O49" s="18" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="8b0000"/>
+              <sz val="20"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Step 3 
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="false"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="696969"/>
+              <sz val="14"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Review itemised quote and follow the prompts to </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="696969"/>
+              <sz val="15"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">place your order. </t>
+          </r>
+        </is>
+      </c>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="24"/>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" s="19"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="25"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="25"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="25"/>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" s="19"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="25"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="25"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="25"/>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" s="19"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="25"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="25"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="22"/>
+      <c r="T52" s="25"/>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" s="19"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="25"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="25"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="22"/>
+      <c r="T53" s="25"/>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" s="19"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="25"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="25"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="22"/>
+      <c r="T54" s="25"/>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="20"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="26"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="26"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="23"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="23"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="26"/>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" s="27" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="false"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FFFFFF"/>
+              <sz val="18"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Contact us on </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FFFFFF"/>
+              <sz val="18"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">1800 008 828</t>
+          </r>
+        </is>
+      </c>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H58" s="27" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="false"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FFFFFF"/>
+              <sz val="18"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">support@sculptform.com.au</t>
+          </r>
+        </is>
+      </c>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O58" s="27" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FFFFFF"/>
+              <sz val="18"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">sculptform.com.au</t>
+          </r>
+        </is>
+      </c>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="27"/>
+      <c r="T58" s="27"/>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="27"/>
+      <c r="T59" s="27"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="I12:P12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="P19:T19"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="P20:T20"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="P22:T22"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="K26:N28"/>
+    <mergeCell ref="O26:Q28"/>
+    <mergeCell ref="R26:T28"/>
+    <mergeCell ref="K31:T32"/>
+    <mergeCell ref="K33:T35"/>
+    <mergeCell ref="K36:T38"/>
+    <mergeCell ref="K39:T41"/>
+    <mergeCell ref="K42:T42"/>
+    <mergeCell ref="A46:T47"/>
+    <mergeCell ref="A49:F55"/>
+    <mergeCell ref="H49:M55"/>
+    <mergeCell ref="O49:T55"/>
+    <mergeCell ref="A58:F59"/>
+    <mergeCell ref="H58:M59"/>
+    <mergeCell ref="O58:T59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="N58:N59"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/file.xlsx
+++ b/output/file.xlsx
@@ -673,7 +673,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="12192000" cy="1905000"/>
+    <xdr:ext cx="13458825" cy="1905000"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Logo" descr="Logo">
@@ -705,7 +705,7 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5486400" cy="2457450"/>
+    <xdr:ext cx="6057900" cy="2457450"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="" descr=""/>

--- a/output/file.xlsx
+++ b/output/file.xlsx
@@ -673,7 +673,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="13458825" cy="1905000"/>
+    <xdr:ext cx="15220950" cy="2000250"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Logo" descr="Logo">
@@ -705,7 +705,7 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6057900" cy="2457450"/>
+    <xdr:ext cx="6848475" cy="2333625"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="" descr=""/>
